--- a/1. [SE] SRS (& System testing).xlsx
+++ b/1. [SE] SRS (& System testing).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Education\2025년도 2학기\[2025.09.01~2025.12.XX] 소프트웨어공학\2. 레포트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\werty\OneDrive\바탕 화면\cle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD5AEE4-9948-4C79-BBEF-FB7BF621A4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75053DD6-36FC-4AA6-AEA9-D02AD4EBC103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="14" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>1.1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,14 @@
   </si>
   <si>
     <t>(본 프로젝트에 대한 전반적인 요약문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창영이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,9 +1153,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1185,9 +1193,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1220,9 +1228,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1255,9 +1280,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1436,24 +1478,24 @@
   </sheetPr>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="22.9140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="33.58203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="21.4140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="29.4140625" style="22" customWidth="1"/>
     <col min="7" max="7" width="33" style="22" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="22" customWidth="1"/>
+    <col min="9" max="9" width="11.58203125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="10.58203125" style="22" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="22"/>
+    <col min="12" max="16384" width="8.9140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
@@ -1532,7 +1574,9 @@
     <row r="6" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1542,7 +1586,9 @@
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="C7" s="22"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -1593,7 +1639,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5">
+    <row r="12" spans="1:11" ht="17">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="4"/>
@@ -1646,7 +1692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="25" customFormat="1" ht="13.5">
+    <row r="15" spans="1:11" s="25" customFormat="1" ht="16">
       <c r="A15" s="65"/>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
@@ -1672,7 +1718,7 @@
       <c r="J16" s="63"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5">
+    <row r="17" spans="1:11" ht="16">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -1689,7 +1735,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5">
+    <row r="18" spans="1:11" ht="16">
       <c r="A18" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1777,7 +1823,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5">
+    <row r="24" spans="1:11" ht="16">
       <c r="A24" s="32">
         <v>2</v>
       </c>
@@ -1794,7 +1840,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" ht="27">
+    <row r="25" spans="1:11" ht="32">
       <c r="A25" s="32">
         <v>2.1</v>
       </c>
@@ -1853,7 +1899,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" ht="27">
+    <row r="29" spans="1:11" ht="32">
       <c r="A29" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -1897,7 +1943,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" ht="13.5">
+    <row r="32" spans="1:11" ht="16">
       <c r="A32" s="32">
         <v>3</v>
       </c>
@@ -1913,7 +1959,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" ht="27">
+    <row r="33" spans="1:11" ht="32">
       <c r="A33" s="32">
         <v>3.1</v>
       </c>
@@ -1956,7 +2002,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11" ht="13.5">
+    <row r="36" spans="1:11" ht="16">
       <c r="A36" s="31">
         <v>4</v>
       </c>
@@ -1972,7 +2018,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="1:11" ht="27">
+    <row r="37" spans="1:11" ht="32">
       <c r="A37" s="31">
         <v>4.0999999999999996</v>
       </c>
@@ -2016,7 +2062,7 @@
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="1:11" ht="14.25" thickBot="1">
+    <row r="40" spans="1:11" ht="16.5" thickBot="1">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
@@ -2028,7 +2074,7 @@
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:11" ht="13.5">
+    <row r="41" spans="1:11" ht="16">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -2038,7 +2084,7 @@
       <c r="G41" s="26"/>
       <c r="I41" s="26"/>
     </row>
-    <row r="42" spans="1:11" ht="13.5">
+    <row r="42" spans="1:11" ht="16">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -2083,7 +2129,7 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="29" ht="14.25" customHeight="1"/>
   </sheetData>
